--- a/Visualizzazione layout.xlsx
+++ b/Visualizzazione layout.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="13395" windowHeight="4935"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="13395" windowHeight="4875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>s</t>
   </si>
@@ -2305,6 +2306,1568 @@
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
             <a:t>CP3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Pentagono 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="3076575"/>
+          <a:ext cx="683260" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>SP1</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65405</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Pentagono 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1210945" y="2010410"/>
+          <a:ext cx="683260" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>SP2</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393542</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467202</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Pentagono 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7680167" y="3952875"/>
+          <a:ext cx="680879" cy="468630"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="Verdana"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>SS1</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502444</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connettore 7 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="26" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286251" y="3317082"/>
+          <a:ext cx="483393" cy="445293"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rettangolo 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695701" y="2928938"/>
+          <a:ext cx="590550" cy="776288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rp1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78582</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connettore 7 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3074035" y="3310890"/>
+          <a:ext cx="621666" cy="6192"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rettangolo 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="3786188"/>
+          <a:ext cx="590550" cy="785812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>R1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393542</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connettore 7 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6869906" y="4179094"/>
+          <a:ext cx="810261" cy="8096"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connettore 7 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5667375" y="4179094"/>
+          <a:ext cx="638175" cy="130969"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rettangolo 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="1654969"/>
+          <a:ext cx="590550" cy="726281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Cv3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rettangolo 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="1619251"/>
+          <a:ext cx="997744" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rp2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>size 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>vmax 20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connettore 7 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3417094" y="2000251"/>
+          <a:ext cx="469106" cy="17859"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connettore 7 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1894205" y="2000251"/>
+          <a:ext cx="525145" cy="244474"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rettangolo 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="2452688"/>
+          <a:ext cx="590550" cy="747713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>R3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522685</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Connettore 7 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="2018110"/>
+          <a:ext cx="922735" cy="434578"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522685</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connettore 7 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="26" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5114331" y="3477221"/>
+          <a:ext cx="561974" cy="8335"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Esagono 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="3762375"/>
+          <a:ext cx="1171575" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>I1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Ritaglia angolo stesso lato rettangolo 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="4629150"/>
+          <a:ext cx="885825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Home 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Ritaglia angolo stesso lato rettangolo 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="5419725"/>
+          <a:ext cx="885825" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Home 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connettore 7 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3567114" y="4310062"/>
+          <a:ext cx="928687" cy="319087"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502445</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connettore 7 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4420792" y="5070872"/>
+          <a:ext cx="561975" cy="135731"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rettangolo 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="3105150"/>
+          <a:ext cx="990600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>MAC1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rettangolo 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="2028825"/>
+          <a:ext cx="990600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>MAC2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300516</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rettangolo 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420578" y="3933825"/>
+          <a:ext cx="988219" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>SPD1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2603,8 +4166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,13 +4211,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E8:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>10/20*60</f>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>10/15*60</f>
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f>(E8+H8+K14)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>25/30*60</f>
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2668,4 +4266,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>